--- a/data/trans_camb/P68-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P68-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P68-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P68-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,05</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>5,67; 27,78</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-22,85; -5,35</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 25,89</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-24,45; -4,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,82; 24,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,83; -7,5</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>65,17%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-51,53%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>57,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-57,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,17%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>18,41; 131,89</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-70,26; -20,09</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 135,05</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-73,02; -24,36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,01; 110,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,18; -33,56</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,08</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 16,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,02; 32,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,15; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 13,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 24,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 14,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 12,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,3; 25,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 4,26</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,97%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,09; 71,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,36; 142,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,07; 10,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,98; 70,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,98; 125,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; 80,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,6; 52,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,34; 113,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,12; 18,29</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; 6,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,82; 6,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,73; 22,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,9; 9,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; 3,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 26,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 4,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,39; 2,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,76; 21,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,1%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,51; 37,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,45; 40,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,98; 138,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,72; 63,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,63; 13,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,97; 160,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,17; 24,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,0; 11,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,89; 122,15</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 14,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; 14,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,17; 8,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,04; 23,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,05; 32,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 27,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 16,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 18,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 14,44</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,65%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,64; 68,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,63; 64,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,26; 37,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,12; 181,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,97; 254,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,42; 204,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,58; 86,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,7; 94,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,23; 73,97</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,26; 10,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,42; 9,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,57; 3,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 22,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; 8,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; 5,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,37; 10,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,74; 6,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,25; 1,09</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,44%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,14%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,84%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,77%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,68; 73,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,75; 62,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,09; 28,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,67; 287,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,12; 136,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,82; 74,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,55; 79,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,54; 45,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,48; 7,65</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 21,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,16; 4,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 6,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 26,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,53; 4,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,91; 29,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 20,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,35; 0,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 13,49</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,94%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,09%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,25%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,1%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 102,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,11; 19,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,65; 30,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,36; 229,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,99; 43,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,23; 265,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,45; 105,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,38; 3,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 70,49</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,71</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,71; 0,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,91; 3,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 3,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,05; 10,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,62; 3,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,3; 6,6</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,65; 3,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,86; 0,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 2,6</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,27%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,08%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,77%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,67%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,99; 1,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,03; 14,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,66; 14,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,12; 51,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,83; 21,18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,28; 35,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,79; 13,16</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,08; 4,12</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,02; 11,48</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,71</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,75</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,93</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,06</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,61</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,21; -5,49</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,36; -6,45</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; -4,92</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,7; -1,63</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,22; -5,22</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; 7,3</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,56; -6,09</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,88; -7,36</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,65; -2,57</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,11%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,52%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,16%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,28%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,28%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,94%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,05%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,08%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,24; -25,75</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,12; -28,79</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,12; -23,28</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,24; -10,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,4; -28,72</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,91; 42,36</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,61; -28,87</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,01; -37,28</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,34; -10,98</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 1,19</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 2,8</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; -2,31</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 5,15</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 2,9</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 6,36</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 1,71</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 1,91</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 0,21</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,91%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,79%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 5,1</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,86; 11,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,52; -9,5</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,42; 26,19</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,15; 15,28</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 32,58</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,67; 7,55</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 8,49</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; 0,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P68-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P68-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,42</t>
+          <t>-13,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,79</t>
+          <t>-14,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,05</t>
+          <t>-14,18</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 16,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,85; -5,35</t>
+          <t>-22,97; -5,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 22,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,45; -4,8</t>
+          <t>-24,48; -4,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 16,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -7,5</t>
+          <t>-21,06; -7,64</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-51,53%</t>
+          <t>-52,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-57,33%</t>
+          <t>-57,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-54,17%</t>
+          <t>-54,65%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,1; 73,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,26; -20,09</t>
+          <t>-71,27; -19,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,08; 113,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,02; -24,36</t>
+          <t>-73,23; -23,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 72,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,18; -33,56</t>
+          <t>-68,9; -34,34</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,33</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,09</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 2,35</t>
+          <t>-14,68; 2,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 14,44</t>
+          <t>-5,26; 14,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 4,26</t>
+          <t>-9,2; 4,28</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>-22,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>-8,0%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 10,39</t>
+          <t>-49,09; 11,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 80,8</t>
+          <t>-18,03; 80,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 18,29</t>
+          <t>-30,28; 18,35</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,91</t>
+          <t>14,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
+          <t>13,91</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 22,21</t>
+          <t>2,44; 22,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 26,47</t>
+          <t>2,64; 26,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 21,57</t>
+          <t>6,5; 21,3</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,32%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>65,1%</t>
+          <t>63,98%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,98; 138,34</t>
+          <t>7,26; 136,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,97; 160,16</t>
+          <t>7,32; 161,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,89; 122,15</t>
+          <t>25,46; 121,52</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,56</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>14,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>5,7</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 14,65</t>
+          <t>-2,77; 18,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 8,7</t>
+          <t>-12,52; 8,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 23,45</t>
+          <t>1,21; 23,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 27,98</t>
+          <t>-4,32; 40,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 16,13</t>
+          <t>1,69; 16,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 14,44</t>
+          <t>-7,26; 22,6</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,5%</t>
+          <t>-8,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>70,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>84,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>25,22%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 68,96</t>
+          <t>-9,19; 82,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,26; 37,84</t>
+          <t>-42,2; 37,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,12; 181,35</t>
+          <t>3,99; 184,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,42; 204,66</t>
+          <t>-22,79; 288,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,58; 86,52</t>
+          <t>4,91; 83,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 73,97</t>
+          <t>-30,82; 109,41</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-5,72</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 3,82</t>
+          <t>-15,66; 3,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 5,04</t>
+          <t>-16,49; 5,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 1,09</t>
+          <t>-13,22; 1,12</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-25,14%</t>
+          <t>-25,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-28,06%</t>
+          <t>-27,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-30,77%</t>
+          <t>-30,43%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 28,24</t>
+          <t>-57,11; 28,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,82; 74,06</t>
+          <t>-67,52; 75,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 7,65</t>
+          <t>-55,24; 8,17</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>4,5</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 6,29</t>
+          <t>-13,31; 6,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,91; 29,33</t>
+          <t>5,66; 29,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 13,49</t>
+          <t>-2,76; 13,28</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>-12,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>105,29%</t>
+          <t>105,49%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>19,15%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 30,74</t>
+          <t>-42,12; 29,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,23; 265,65</t>
+          <t>22,59; 266,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 70,49</t>
+          <t>-9,89; 69,69</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-2,86</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 3,3</t>
+          <t>-11,53; 3,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 6,6</t>
+          <t>-9,33; 6,6</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 2,6</t>
+          <t>-8,08; 2,42</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-14,77%</t>
+          <t>-15,83%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-3,55%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>-11,16%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 14,52</t>
+          <t>-38,84; 13,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 35,03</t>
+          <t>-30,38; 35,17</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 11,48</t>
+          <t>-27,83; 10,95</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-10,48</t>
+          <t>-14,7</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-6,61</t>
+          <t>-10,33</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -4,92</t>
+          <t>-23,19; -7,16</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 7,3</t>
+          <t>-7,74; 6,65</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -2,57</t>
+          <t>-18,86; -4,32</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-44,16%</t>
+          <t>-61,93%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-29,08%</t>
+          <t>-45,45%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-61,12; -23,28</t>
+          <t>-85,51; -30,38</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 42,36</t>
+          <t>-30,94; 38,51</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-46,34; -10,98</t>
+          <t>-75,24; -19,49</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-3,27</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -2,31</t>
+          <t>-13,15; -3,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 6,36</t>
+          <t>-1,23; 8,76</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,21</t>
+          <t>-7,74; 0,02</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-29,88%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>-13,76%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-32,52; -9,5</t>
+          <t>-51,58; -15,1</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 32,58</t>
+          <t>-5,43; 43,82</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 0,73</t>
+          <t>-32,84; -0,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P68-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P68-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 16,0</t>
+          <t>-5,76; 17,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 27,78</t>
+          <t>4,75; 28,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,97; -5,42</t>
+          <t>-22,56; -4,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 22,0</t>
+          <t>-5,38; 22,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 25,89</t>
+          <t>1,94; 27,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,48; -4,66</t>
+          <t>-24,9; -5,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 16,16</t>
+          <t>-1,13; 15,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 24,63</t>
+          <t>7,89; 23,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -7,64</t>
+          <t>-20,89; -8,31</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 73,98</t>
+          <t>-18,73; 86,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 131,89</t>
+          <t>15,47; 140,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,27; -19,81</t>
+          <t>-71,71; -18,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 113,19</t>
+          <t>-17,53; 114,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 135,05</t>
+          <t>4,44; 137,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,23; -23,68</t>
+          <t>-75,26; -31,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 72,54</t>
+          <t>-4,11; 72,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 110,54</t>
+          <t>26,07; 107,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,9; -34,34</t>
+          <t>-68,55; -36,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 16,27</t>
+          <t>-2,88; 15,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 32,21</t>
+          <t>12,85; 32,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 2,82</t>
+          <t>-15,13; 2,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 13,62</t>
+          <t>-6,89; 15,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 24,3</t>
+          <t>0,03; 23,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 14,46</t>
+          <t>-5,1; 13,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 12,05</t>
+          <t>-2,74; 11,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 25,6</t>
+          <t>11,23; 25,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 4,28</t>
+          <t>-8,65; 4,65</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 71,36</t>
+          <t>-9,74; 62,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,36; 142,98</t>
+          <t>42,76; 142,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 11,39</t>
+          <t>-50,51; 11,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 70,22</t>
+          <t>-25,66; 75,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 125,42</t>
+          <t>-0,14; 118,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 80,54</t>
+          <t>-17,8; 69,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 52,22</t>
+          <t>-9,47; 48,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,34; 113,08</t>
+          <t>39,0; 113,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 18,35</t>
+          <t>-30,35; 20,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 6,16</t>
+          <t>-12,37; 5,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 6,3</t>
+          <t>-12,45; 4,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 22,03</t>
+          <t>3,37; 23,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 9,99</t>
+          <t>-13,17; 12,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 3,17</t>
+          <t>-18,62; 3,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 26,36</t>
+          <t>3,27; 25,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 4,83</t>
+          <t>-9,84; 4,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 2,06</t>
+          <t>-12,77; 1,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 21,3</t>
+          <t>6,79; 21,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 37,83</t>
+          <t>-50,51; 34,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 40,05</t>
+          <t>-50,67; 28,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 136,06</t>
+          <t>12,86; 142,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 63,11</t>
+          <t>-47,1; 68,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 13,59</t>
+          <t>-65,77; 32,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 161,44</t>
+          <t>10,27; 159,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 24,67</t>
+          <t>-39,11; 26,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,0; 11,66</t>
+          <t>-51,02; 9,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,46; 121,52</t>
+          <t>26,88; 120,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 18,64</t>
+          <t>-3,0; 16,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 14,29</t>
+          <t>-7,46; 13,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 8,69</t>
+          <t>-11,48; 8,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 23,28</t>
+          <t>0,72; 23,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,05; 32,61</t>
+          <t>7,8; 32,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 40,21</t>
+          <t>-5,82; 36,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,79</t>
+          <t>1,11; 16,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 18,52</t>
+          <t>1,76; 17,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 22,6</t>
+          <t>-7,01; 22,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 82,47</t>
+          <t>-10,85; 73,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 64,99</t>
+          <t>-26,75; 59,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,2; 37,87</t>
+          <t>-39,28; 39,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 184,66</t>
+          <t>3,01; 182,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,97; 254,35</t>
+          <t>34,98; 246,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 288,93</t>
+          <t>-32,77; 252,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 83,77</t>
+          <t>4,61; 78,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,7; 94,85</t>
+          <t>6,87; 91,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 109,41</t>
+          <t>-28,67; 114,6</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 10,96</t>
+          <t>-12,75; 10,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 9,56</t>
+          <t>-13,33; 10,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 3,79</t>
+          <t>-15,27; 4,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 22,01</t>
+          <t>-8,44; 22,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 8,01</t>
+          <t>-17,03; 8,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 5,17</t>
+          <t>-16,69; 5,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 10,79</t>
+          <t>-7,4; 10,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 6,03</t>
+          <t>-12,86; 5,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 1,12</t>
+          <t>-13,11; 0,96</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 73,2</t>
+          <t>-52,18; 70,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 62,28</t>
+          <t>-52,18; 73,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,11; 28,13</t>
+          <t>-56,5; 29,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 287,81</t>
+          <t>-44,6; 337,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,12; 136,94</t>
+          <t>-77,5; 137,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,52; 75,09</t>
+          <t>-67,29; 76,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 79,82</t>
+          <t>-34,16; 75,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 45,02</t>
+          <t>-55,41; 40,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,24; 8,17</t>
+          <t>-54,78; 7,76</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 21,94</t>
+          <t>-1,05; 22,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 4,22</t>
+          <t>-15,7; 6,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 6,0</t>
+          <t>-13,33; 6,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 26,22</t>
+          <t>-4,07; 26,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 4,05</t>
+          <t>-17,64; 3,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,66; 29,24</t>
+          <t>5,09; 28,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 20,81</t>
+          <t>1,77; 19,83</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 0,51</t>
+          <t>-14,61; 0,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 13,28</t>
+          <t>-2,59; 11,25</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 102,45</t>
+          <t>-3,23; 101,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,11; 19,87</t>
+          <t>-51,28; 30,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 29,1</t>
+          <t>-40,4; 27,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 229,77</t>
+          <t>-19,43; 229,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-80,99; 43,02</t>
+          <t>-78,88; 37,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,59; 266,57</t>
+          <t>22,54; 275,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,45; 105,09</t>
+          <t>6,53; 99,48</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 3,64</t>
+          <t>-54,59; 5,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 69,69</t>
+          <t>-9,87; 59,43</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 0,28</t>
+          <t>-12,59; 1,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 3,15</t>
+          <t>-10,82; 2,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 3,0</t>
+          <t>-11,09; 2,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 10,29</t>
+          <t>-8,76; 9,96</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 3,69</t>
+          <t>-12,54; 3,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 6,6</t>
+          <t>-9,14; 6,86</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 3,11</t>
+          <t>-9,08; 2,14</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 0,96</t>
+          <t>-9,87; 0,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 2,42</t>
+          <t>-8,11; 2,25</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 1,25</t>
+          <t>-43,49; 6,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 14,64</t>
+          <t>-36,42; 9,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 13,07</t>
+          <t>-37,34; 11,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 51,19</t>
+          <t>-30,11; 49,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 21,18</t>
+          <t>-43,19; 16,91</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 35,17</t>
+          <t>-30,86; 37,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 13,16</t>
+          <t>-31,82; 9,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 4,12</t>
+          <t>-34,13; 1,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 10,95</t>
+          <t>-28,01; 10,75</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -5,49</t>
+          <t>-16,0; -5,07</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-17,36; -6,45</t>
+          <t>-17,33; -6,23</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,19; -7,16</t>
+          <t>-24,24; -6,93</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -1,63</t>
+          <t>-16,26; -2,01</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-18,22; -5,22</t>
+          <t>-18,86; -5,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 6,65</t>
+          <t>-8,06; 7,0</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -6,09</t>
+          <t>-14,26; -5,71</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -7,36</t>
+          <t>-16,15; -7,85</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-18,86; -4,32</t>
+          <t>-18,66; -4,37</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-61,24; -25,75</t>
+          <t>-60,56; -23,86</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-65,12; -28,79</t>
+          <t>-64,74; -28,74</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-85,51; -30,38</t>
+          <t>-87,38; -30,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-65,24; -10,16</t>
+          <t>-64,9; -10,12</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-73,4; -28,72</t>
+          <t>-75,58; -28,79</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 38,51</t>
+          <t>-32,26; 42,03</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-58,61; -28,87</t>
+          <t>-58,02; -28,0</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-65,01; -37,28</t>
+          <t>-64,25; -36,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-75,24; -19,49</t>
+          <t>-73,02; -20,15</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,19</t>
+          <t>-4,4; 1,7</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,8</t>
+          <t>-3,24; 2,84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -3,58</t>
+          <t>-13,94; -3,5</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,15</t>
+          <t>-2,87; 4,88</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,9</t>
+          <t>-4,12; 3,13</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,76</t>
+          <t>-1,77; 9,03</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,71</t>
+          <t>-2,79; 1,95</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,91</t>
+          <t>-2,75; 1,86</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 0,02</t>
+          <t>-7,87; -0,26</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 5,1</t>
+          <t>-16,62; 7,19</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 11,97</t>
+          <t>-12,35; 11,95</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-51,58; -15,1</t>
+          <t>-53,73; -14,91</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 26,19</t>
+          <t>-12,53; 24,42</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 15,28</t>
+          <t>-17,93; 16,29</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 43,82</t>
+          <t>-7,28; 44,25</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 7,55</t>
+          <t>-11,33; 8,58</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 8,49</t>
+          <t>-11,03; 8,37</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-32,84; -0,15</t>
+          <t>-32,4; -1,14</t>
         </is>
       </c>
     </row>
